--- a/similarities/split_global/harmonic_similarity_timestamps_310.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_310.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,138 +484,148 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['D/5', 'A', 'D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:02:11.140000', '0:02:13.900000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:14.840000', '0:00:22.200000')]</t>
+          <t>('0:00:12.743000', '0:00:16.216000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=131.14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=14.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>['Bb:min', 'Eb:7', 'Ab', 'F:7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
+          <t>['D:min', 'G:7', 'C', 'A:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:11.210000', '0:00:14.450000')]</t>
+          <t>('0:00:08.340000', '0:00:14.860000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+          <t>('0:01:46.710000', '0:01:54.554000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=8.34</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=106.71</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F/5', 'C:maj', 'D:min7/b7'], ['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:04.555000', '0:00:10.619000'), ('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:03.180000', '0:01:06.100000'), ('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:01:17.720000', '0:01:28')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=4.555', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=63.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -624,570 +634,596 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:min', 'A#:7', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:34.940000', '0:00:36.860000'), ('0:00:08.260000', '0:00:12.960000'), ('0:00:34.660000', '0:00:36.260000')]</t>
+          <t>('0:00:14.480000', '0:00:22.820000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:25.140000', '0:00:42.540000'), ('0:00:01.440000', '0:00:06.840000'), ('0:00:49.080000', '0:00:57.840000')]</t>
+          <t>('0:00:53.500000', '0:01:01.320000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=34.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=34.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=14.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=25.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=49.08']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=53.5</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:24.560000')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:09.200000', '0:00:27.980000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:maj']]</t>
+          <t>['Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:39.976000', '0:00:44.640000')]</t>
+          <t>('0:00:05.571955', '0:00:28.079297')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.300000', '0:00:02.670000')]</t>
+          <t>('0:00:46.560000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=39.976']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:07.580000', '0:00:20.100000')]</t>
+          <t>('0:00:00.820000', '0:00:06.760000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=7.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=57.5']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:09.236303', '0:00:12.162018')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:01.020000', '0:01:08.700000')]</t>
+          <t>('0:00:05.571955', '0:00:28.079297')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=9.236303']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=61.02']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:43.540000', '0:01:00')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+          <t>('0:04:43.300000', '0:04:50.060000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=43.54</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:12.600000', '0:00:17.860000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:08.540000', '0:00:14.080000')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['E', 'B:7', 'E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
+          <t>('0:01:01.683832', '0:01:11.056785')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:02.980000', '0:00:08.800000')]</t>
+          <t>('0:00:07.900000', '0:00:21.560000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=2.98']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj', 'C#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:44.660000', '0:00:48.480000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:07.620000', '0:00:09.860000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=44.66</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=7.62</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:09.260000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:02:14.220000', '0:02:19.560000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=9.26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:20.960000'), ('0:01:21.100000', '0:01:27.580000')]</t>
+          <t>('0:01:10.980000', '0:01:27.200000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000'), ('0:00:08.200000', '0:00:12.660000')]</t>
+          <t>('0:00:16.240000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:24.911369', '0:00:31.761256')]</t>
+          <t>('0:00:07.284457', '0:00:22.098788')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:06.480000', '0:00:13.420000')]</t>
+          <t>('0:00:52.740000', '0:01:04.440000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=24.911369']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=6.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
